--- a/aiml lab/encoded_output.xlsx
+++ b/aiml lab/encoded_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>moderate</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Future Dream</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Difficulty</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -531,6 +541,16 @@
       </c>
       <c r="L2" t="n">
         <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[0, 1, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[0, 1, 0]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -570,6 +590,16 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[0, 0, 1, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1, 0, 0]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +638,16 @@
       <c r="L4" t="n">
         <v>0</v>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[1, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0, 1, 0]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -646,6 +686,16 @@
       <c r="L5" t="n">
         <v>0</v>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 1, 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[1, 0, 0]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -684,6 +734,16 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 1, 0, 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1, 0, 0]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -722,6 +782,16 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[0, 1, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[0, 1, 0]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +830,16 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[0, 0, 1, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[1, 0, 0]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -797,6 +877,16 @@
       </c>
       <c r="L9" t="n">
         <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 1]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[0, 0, 1]</t>
+        </is>
       </c>
     </row>
   </sheetData>
